--- a/data/n2v/tables/model-1-1325-20230828-6.xlsx
+++ b/data/n2v/tables/model-1-1325-20230828-6.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
